--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_RHM_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_RHM_ThanhToan.xlsx
@@ -71,9 +71,6 @@
     <t>Tiền</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].TYLE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -440,12 +440,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,21 +475,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +792,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -801,14 +801,14 @@
       <c r="C2" s="3"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="G2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -820,94 +820,94 @@
     <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="G3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="G4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="37" t="s">
+      <c r="L7" s="31"/>
+      <c r="M7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="37" t="s">
+      <c r="R7" s="31"/>
+      <c r="S7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="38"/>
-      <c r="U7" s="30" t="s">
+      <c r="T7" s="31"/>
+      <c r="U7" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="11" t="s">
         <v>12</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="T8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="31"/>
+      <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1007,76 +1007,76 @@
     </row>
     <row r="10" spans="1:21" s="22" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="E10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="L10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="M10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="R10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="S10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="T10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="U10" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="U10" s="27" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T13" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -1123,28 +1123,35 @@
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="26"/>
       <c r="H15" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="O15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="S7:T7"/>
@@ -1158,13 +1165,6 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_RHM_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_RHM_ThanhToan.xlsx
@@ -440,18 +440,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,21 +475,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -760,7 +760,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,14 +801,14 @@
       <c r="C2" s="3"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -820,94 +820,94 @@
     <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="30" t="s">
+      <c r="L7" s="38"/>
+      <c r="M7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="30" t="s">
+      <c r="N7" s="38"/>
+      <c r="O7" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="30" t="s">
+      <c r="P7" s="38"/>
+      <c r="Q7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="31"/>
-      <c r="S7" s="30" t="s">
+      <c r="R7" s="38"/>
+      <c r="S7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="32" t="s">
+      <c r="T7" s="38"/>
+      <c r="U7" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="11" t="s">
         <v>12</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="T8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="33"/>
+      <c r="U8" s="31"/>
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1005,7 +1005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="22" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
@@ -1071,12 +1071,12 @@
       </c>
     </row>
     <row r="11" spans="1:21" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1145,13 +1145,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="S7:T7"/>
@@ -1165,6 +1158,13 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuatThuThuat_RHM_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuatThuThuat_RHM_ThanhToan.xlsx
@@ -440,12 +440,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,21 +475,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -760,7 +760,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,14 +801,14 @@
       <c r="C2" s="3"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -820,94 +820,94 @@
     <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="37" t="s">
+      <c r="L7" s="31"/>
+      <c r="M7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="37" t="s">
+      <c r="N7" s="31"/>
+      <c r="O7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="37" t="s">
+      <c r="P7" s="31"/>
+      <c r="Q7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="37" t="s">
+      <c r="R7" s="31"/>
+      <c r="S7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="38"/>
-      <c r="U7" s="30" t="s">
+      <c r="T7" s="31"/>
+      <c r="U7" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="11" t="s">
         <v>12</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="T8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="31"/>
+      <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1071,12 +1071,12 @@
       </c>
     </row>
     <row r="11" spans="1:21" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1145,6 +1145,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="S7:T7"/>
@@ -1158,16 +1165,9 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
